--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XiaochenLin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XiaochenLin\Desktop\Quantitative-Country-ETF-Trading-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F056CFE-BC60-4234-83F1-97F1D30854A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B38DD-0274-413E-9C67-FF4273C09FC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="356">
   <si>
     <t>Ticker</t>
   </si>
@@ -593,6 +593,513 @@
   </si>
   <si>
     <t>Emerging</t>
+  </si>
+  <si>
+    <t>REER</t>
+  </si>
+  <si>
+    <t>BISBDKR Index</t>
+  </si>
+  <si>
+    <t>BISBFIR Index</t>
+  </si>
+  <si>
+    <t>BISBFRR Index</t>
+  </si>
+  <si>
+    <t>BISBDER Index</t>
+  </si>
+  <si>
+    <t>BISBGRR Index</t>
+  </si>
+  <si>
+    <t>BISBHKR Index</t>
+  </si>
+  <si>
+    <t>BISBINR Index</t>
+  </si>
+  <si>
+    <t>BISBIDR Index</t>
+  </si>
+  <si>
+    <t>BISBIER Index</t>
+  </si>
+  <si>
+    <t>BISBILR Index</t>
+  </si>
+  <si>
+    <t>BISBITR Index</t>
+  </si>
+  <si>
+    <t>BISBJPR Index</t>
+  </si>
+  <si>
+    <t>BISBKRR Index</t>
+  </si>
+  <si>
+    <t>BISBMYR Index</t>
+  </si>
+  <si>
+    <t>BISBMXR Index</t>
+  </si>
+  <si>
+    <t>BISBNLR Index</t>
+  </si>
+  <si>
+    <t>BISBNZR Index</t>
+  </si>
+  <si>
+    <t>BISBNOR Index</t>
+  </si>
+  <si>
+    <t>BISBPER Index</t>
+  </si>
+  <si>
+    <t>BISBPHR Index</t>
+  </si>
+  <si>
+    <t>BISBPLR Index</t>
+  </si>
+  <si>
+    <t>BISBPTR Index</t>
+  </si>
+  <si>
+    <t>BISBRUR Index</t>
+  </si>
+  <si>
+    <t>BISBSAR Index</t>
+  </si>
+  <si>
+    <t>BISBSGR Index</t>
+  </si>
+  <si>
+    <t>BISBBRR Index</t>
+  </si>
+  <si>
+    <t>BISBESR Index</t>
+  </si>
+  <si>
+    <t>BISBSER Index</t>
+  </si>
+  <si>
+    <t>BISBCHR Index</t>
+  </si>
+  <si>
+    <t>BISBTWR Index</t>
+  </si>
+  <si>
+    <t>BRERTH Index</t>
+  </si>
+  <si>
+    <t>BISBTRR Index</t>
+  </si>
+  <si>
+    <t>BISBAED Index</t>
+  </si>
+  <si>
+    <t>BISBGBR Index</t>
+  </si>
+  <si>
+    <t>BISBUSR Index</t>
+  </si>
+  <si>
+    <t>BISBARR Index</t>
+  </si>
+  <si>
+    <t>BISBAUR Index</t>
+  </si>
+  <si>
+    <t>BISBATR Index</t>
+  </si>
+  <si>
+    <t>BISBBER Index</t>
+  </si>
+  <si>
+    <t>BISBCAR Index</t>
+  </si>
+  <si>
+    <t>BISBCLR Index</t>
+  </si>
+  <si>
+    <t>BISBCNR Index</t>
+  </si>
+  <si>
+    <t>BISBCOP Index</t>
+  </si>
+  <si>
+    <t>GDDBARGE Index</t>
+  </si>
+  <si>
+    <t>GDDBAUSL Index</t>
+  </si>
+  <si>
+    <t>GDDBAUST Index</t>
+  </si>
+  <si>
+    <t>GDDBBELG Index</t>
+  </si>
+  <si>
+    <t>GDDBBRAZ Index</t>
+  </si>
+  <si>
+    <t>GDDBCANA Index</t>
+  </si>
+  <si>
+    <t>GDDBCHIL Index</t>
+  </si>
+  <si>
+    <t>GDDBCHIN Index</t>
+  </si>
+  <si>
+    <t>GDDBCOLO Index</t>
+  </si>
+  <si>
+    <t>GDDBDNMK Index</t>
+  </si>
+  <si>
+    <t>GDDBEGYP Index</t>
+  </si>
+  <si>
+    <t>GDDBFINL Index</t>
+  </si>
+  <si>
+    <t>GDDBFRAN Index</t>
+  </si>
+  <si>
+    <t>GDDBGERM Index</t>
+  </si>
+  <si>
+    <t>GDDBGREE Index</t>
+  </si>
+  <si>
+    <t>GDDBHOKO Index</t>
+  </si>
+  <si>
+    <t>GDDBINDA Index</t>
+  </si>
+  <si>
+    <t>GDDBIDNS Index</t>
+  </si>
+  <si>
+    <t>GDDBIREL Index</t>
+  </si>
+  <si>
+    <t>GDDBISRL Index</t>
+  </si>
+  <si>
+    <t>GDDBITLY Index</t>
+  </si>
+  <si>
+    <t>GDDBJAPN Index</t>
+  </si>
+  <si>
+    <t>GDDBSOKO Index</t>
+  </si>
+  <si>
+    <t>GDDBMALY Index</t>
+  </si>
+  <si>
+    <t>GDDBMXCO Index</t>
+  </si>
+  <si>
+    <t>GDDBNETH Index</t>
+  </si>
+  <si>
+    <t>GDDBNWZD Index</t>
+  </si>
+  <si>
+    <t>GDDBNORW Index</t>
+  </si>
+  <si>
+    <t>GDDBPAKI Index</t>
+  </si>
+  <si>
+    <t>GDDBPERU Index</t>
+  </si>
+  <si>
+    <t>GDDBPHIL Index</t>
+  </si>
+  <si>
+    <t>GDDBPOLA Index</t>
+  </si>
+  <si>
+    <t>GDDBPORT Index</t>
+  </si>
+  <si>
+    <t>GDDBQATA Index</t>
+  </si>
+  <si>
+    <t>GDDBRUSS Index</t>
+  </si>
+  <si>
+    <t>GDDBSAAR Index</t>
+  </si>
+  <si>
+    <t>GDDBSING Index</t>
+  </si>
+  <si>
+    <t>GDDBSOAF Index</t>
+  </si>
+  <si>
+    <t>GDDBSPAN Index</t>
+  </si>
+  <si>
+    <t>GDDBSWED Index</t>
+  </si>
+  <si>
+    <t>GDDBSWIT Index</t>
+  </si>
+  <si>
+    <t>GDDBTIWN Index</t>
+  </si>
+  <si>
+    <t>GDDBTHAI Index</t>
+  </si>
+  <si>
+    <t>GDDBTURK Index</t>
+  </si>
+  <si>
+    <t>GDDBUNAE Index</t>
+  </si>
+  <si>
+    <t>GDDBUNKI Index</t>
+  </si>
+  <si>
+    <t>GDDBUNST Index</t>
+  </si>
+  <si>
+    <t>GDP Growth</t>
+  </si>
+  <si>
+    <t>Debt/GDP</t>
+  </si>
+  <si>
+    <t>ECGDAR 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDAU 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDAT 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDBE 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDBR 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDCA 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDCL 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDCN 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDCO 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDDK 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDEG 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDFI 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDFR 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDDE 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDGR 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDHK 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDIN 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDID 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDIE 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDIL 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDJP 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDKR 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDMY 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDMX 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDNL 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDNZ 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDNO 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDPK 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDPE 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDPH 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDPL 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDPT 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDQA 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDRU 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDSA 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDSG 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDZA 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDES 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDSE 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDCH 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDTW 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDTH 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDTR 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDAE 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDGB 20 Index</t>
+  </si>
+  <si>
+    <t>ECGDUS 20 Index</t>
+  </si>
+  <si>
+    <t>PMI</t>
+  </si>
+  <si>
+    <t>MPMIAUMA Index</t>
+  </si>
+  <si>
+    <t>MPMIATMA Index</t>
+  </si>
+  <si>
+    <t>MPMIBRMA Index</t>
+  </si>
+  <si>
+    <t>MPMICAMA Index</t>
+  </si>
+  <si>
+    <t>MPMICNMA Index</t>
+  </si>
+  <si>
+    <t>MPMICOMA Index</t>
+  </si>
+  <si>
+    <t>DEPMPMI Index</t>
+  </si>
+  <si>
+    <t>MPMIFRMA Index</t>
+  </si>
+  <si>
+    <t>MPMIDEMA Index</t>
+  </si>
+  <si>
+    <t>MPMIGRMA Index</t>
+  </si>
+  <si>
+    <t>MPMIHKWA Index</t>
+  </si>
+  <si>
+    <t>MPMIINMA Index</t>
+  </si>
+  <si>
+    <t>MPMIIDMA Index</t>
+  </si>
+  <si>
+    <t>MPMIIEMA Index</t>
+  </si>
+  <si>
+    <t>MPMIITMA Index</t>
+  </si>
+  <si>
+    <t>MPMIJPMA Index</t>
+  </si>
+  <si>
+    <t>MPMIKRMA Index</t>
+  </si>
+  <si>
+    <t>MPMIMYMA Index</t>
+  </si>
+  <si>
+    <t>MPMIMXMA Index</t>
+  </si>
+  <si>
+    <t>MPMINLMA Index</t>
+  </si>
+  <si>
+    <t>MPMIPHMA Index</t>
+  </si>
+  <si>
+    <t>MPMIPLMA Index</t>
+  </si>
+  <si>
+    <t>MPMIRUMA Index</t>
+  </si>
+  <si>
+    <t>MPMIESMA Index</t>
+  </si>
+  <si>
+    <t>MPMITWMA Index</t>
+  </si>
+  <si>
+    <t>MPMITHMA Index</t>
+  </si>
+  <si>
+    <t>MPMITRMA Index</t>
+  </si>
+  <si>
+    <t>MPMIGBMA Index</t>
+  </si>
+  <si>
+    <t>MPMIUSMA Index</t>
   </si>
 </sst>
 </file>
@@ -1407,20 +1914,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1428,16 +1941,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1445,16 +1970,25 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" t="s">
         <v>145</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1462,16 +1996,28 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
         <v>146</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1479,16 +2025,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
         <v>147</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1496,16 +2054,25 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
         <v>147</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1513,16 +2080,28 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
         <v>148</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1530,16 +2109,28 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
         <v>149</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1547,16 +2138,25 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" t="s">
         <v>150</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1564,16 +2164,28 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" t="s">
         <v>151</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1581,16 +2193,28 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
         <v>152</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" t="s">
+        <v>288</v>
+      </c>
+      <c r="I10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1598,16 +2222,28 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="s">
         <v>153</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" t="s">
+        <v>289</v>
+      </c>
+      <c r="I11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1615,16 +2251,22 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" t="s">
         <v>154</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1632,16 +2274,25 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
         <v>147</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1649,16 +2300,28 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" t="s">
+        <v>243</v>
+      </c>
+      <c r="H14" t="s">
+        <v>292</v>
+      </c>
+      <c r="I14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1666,16 +2329,28 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" t="s">
         <v>147</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" t="s">
+        <v>293</v>
+      </c>
+      <c r="I15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1683,16 +2358,28 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" t="s">
         <v>147</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" t="s">
+        <v>294</v>
+      </c>
+      <c r="I16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1700,16 +2387,28 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" t="s">
         <v>155</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" t="s">
+        <v>295</v>
+      </c>
+      <c r="I17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1717,16 +2416,28 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" t="s">
         <v>156</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1734,16 +2445,28 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" t="s">
         <v>157</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>248</v>
+      </c>
+      <c r="H19" t="s">
+        <v>297</v>
+      </c>
+      <c r="I19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1751,16 +2474,28 @@
         <v>59</v>
       </c>
       <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" t="s">
         <v>147</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" t="s">
+        <v>298</v>
+      </c>
+      <c r="I20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1768,16 +2503,25 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" t="s">
         <v>158</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1785,16 +2529,25 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" t="s">
         <v>147</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>66</v>
       </c>
-      <c r="E22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" t="s">
+        <v>251</v>
+      </c>
+      <c r="I22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1802,16 +2555,28 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" t="s">
         <v>159</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1819,16 +2584,28 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" t="s">
         <v>160</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24" t="s">
+        <v>301</v>
+      </c>
+      <c r="I24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1836,16 +2613,28 @@
         <v>74</v>
       </c>
       <c r="C25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" t="s">
         <v>161</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>75</v>
       </c>
-      <c r="E25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1853,16 +2642,28 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" t="s">
         <v>162</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>78</v>
       </c>
-      <c r="E26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H26" t="s">
+        <v>303</v>
+      </c>
+      <c r="I26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1870,16 +2671,28 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" t="s">
         <v>147</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>81</v>
       </c>
-      <c r="E27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" t="s">
+        <v>304</v>
+      </c>
+      <c r="I27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1887,16 +2700,25 @@
         <v>83</v>
       </c>
       <c r="C28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="s">
         <v>163</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>84</v>
       </c>
-      <c r="E28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1904,16 +2726,25 @@
         <v>86</v>
       </c>
       <c r="C29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" t="s">
         <v>164</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>87</v>
       </c>
-      <c r="E29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1921,16 +2752,22 @@
         <v>89</v>
       </c>
       <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" t="s">
         <v>165</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>90</v>
       </c>
-      <c r="E30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1938,16 +2775,25 @@
         <v>92</v>
       </c>
       <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" t="s">
         <v>166</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>93</v>
       </c>
-      <c r="E31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" t="s">
+        <v>260</v>
+      </c>
+      <c r="H31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -1955,16 +2801,28 @@
         <v>95</v>
       </c>
       <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" t="s">
         <v>167</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>96</v>
       </c>
-      <c r="E32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" t="s">
+        <v>309</v>
+      </c>
+      <c r="I32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1972,16 +2830,28 @@
         <v>98</v>
       </c>
       <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
         <v>168</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>99</v>
       </c>
-      <c r="E33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H33" t="s">
+        <v>310</v>
+      </c>
+      <c r="I33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -1989,16 +2859,25 @@
         <v>101</v>
       </c>
       <c r="C34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" t="s">
         <v>147</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>102</v>
       </c>
-      <c r="E34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" t="s">
+        <v>263</v>
+      </c>
+      <c r="H34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2006,16 +2885,22 @@
         <v>104</v>
       </c>
       <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" t="s">
         <v>169</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>105</v>
       </c>
-      <c r="E35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -2023,16 +2908,28 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
         <v>170</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>108</v>
       </c>
-      <c r="E36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H36" t="s">
+        <v>313</v>
+      </c>
+      <c r="I36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -2040,16 +2937,25 @@
         <v>110</v>
       </c>
       <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
         <v>171</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>111</v>
       </c>
-      <c r="E37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2057,16 +2963,25 @@
         <v>113</v>
       </c>
       <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" t="s">
         <v>172</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>114</v>
       </c>
-      <c r="E38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" t="s">
+        <v>267</v>
+      </c>
+      <c r="H38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2074,16 +2989,22 @@
         <v>116</v>
       </c>
       <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
         <v>173</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>117</v>
       </c>
-      <c r="E39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>268</v>
+      </c>
+      <c r="H39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -2091,16 +3012,28 @@
         <v>119</v>
       </c>
       <c r="C40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" t="s">
         <v>147</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>120</v>
       </c>
-      <c r="E40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>214</v>
+      </c>
+      <c r="G40" t="s">
+        <v>269</v>
+      </c>
+      <c r="H40" t="s">
+        <v>317</v>
+      </c>
+      <c r="I40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -2108,16 +3041,25 @@
         <v>122</v>
       </c>
       <c r="C41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" t="s">
         <v>174</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>123</v>
       </c>
-      <c r="E41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -2125,16 +3067,25 @@
         <v>125</v>
       </c>
       <c r="C42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" t="s">
         <v>175</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>126</v>
       </c>
-      <c r="E42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" t="s">
+        <v>271</v>
+      </c>
+      <c r="H42" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -2142,16 +3093,28 @@
         <v>128</v>
       </c>
       <c r="C43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" t="s">
         <v>176</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>129</v>
       </c>
-      <c r="E43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" t="s">
+        <v>272</v>
+      </c>
+      <c r="H43" t="s">
+        <v>320</v>
+      </c>
+      <c r="I43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -2159,16 +3122,28 @@
         <v>131</v>
       </c>
       <c r="C44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" t="s">
         <v>177</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>132</v>
       </c>
-      <c r="E44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" t="s">
+        <v>273</v>
+      </c>
+      <c r="H44" t="s">
+        <v>321</v>
+      </c>
+      <c r="I44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -2176,16 +3151,28 @@
         <v>134</v>
       </c>
       <c r="C45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" t="s">
         <v>178</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>135</v>
       </c>
-      <c r="E45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" t="s">
+        <v>274</v>
+      </c>
+      <c r="H45" t="s">
+        <v>322</v>
+      </c>
+      <c r="I45" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -2193,16 +3180,25 @@
         <v>137</v>
       </c>
       <c r="C46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" t="s">
         <v>179</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>138</v>
       </c>
-      <c r="E46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" t="s">
+        <v>275</v>
+      </c>
+      <c r="H46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -2210,16 +3206,28 @@
         <v>140</v>
       </c>
       <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
         <v>180</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>141</v>
       </c>
-      <c r="E47" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>221</v>
+      </c>
+      <c r="G47" t="s">
+        <v>276</v>
+      </c>
+      <c r="H47" t="s">
+        <v>324</v>
+      </c>
+      <c r="I47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -2227,13 +3235,25 @@
         <v>143</v>
       </c>
       <c r="C48" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" t="s">
         <v>181</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>144</v>
       </c>
-      <c r="E48" t="s">
-        <v>185</v>
+      <c r="F48" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" t="s">
+        <v>277</v>
+      </c>
+      <c r="H48" t="s">
+        <v>325</v>
+      </c>
+      <c r="I48" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XiaochenLin\Desktop\Quantitative-Country-ETF-Trading-Strategy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B38DD-0274-413E-9C67-FF4273C09FC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MSCI ACWI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="358">
   <si>
     <t>Ticker</t>
   </si>
@@ -874,144 +868,6 @@
     <t>Debt/GDP</t>
   </si>
   <si>
-    <t>ECGDAR 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDAU 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDAT 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDBE 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDBR 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDCA 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDCL 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDCN 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDCO 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDDK 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDEG 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDFI 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDFR 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDDE 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDGR 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDHK 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDIN 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDID 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDIE 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDIL 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDJP 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDKR 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDMY 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDMX 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDNL 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDNZ 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDNO 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDPK 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDPE 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDPH 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDPL 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDPT 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDQA 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDRU 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDSA 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDSG 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDZA 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDES 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDSE 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDCH 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDTW 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDTH 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDTR 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDAE 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDGB 20 Index</t>
-  </si>
-  <si>
-    <t>ECGDUS 20 Index</t>
-  </si>
-  <si>
     <t>PMI</t>
   </si>
   <si>
@@ -1100,12 +956,156 @@
   </si>
   <si>
     <t>MPMIUSMA Index</t>
+  </si>
+  <si>
+    <t>EHGDIT Index</t>
+  </si>
+  <si>
+    <t>EHGDAR Index</t>
+  </si>
+  <si>
+    <t>EHGDAU Index</t>
+  </si>
+  <si>
+    <t>EHGDAT Index</t>
+  </si>
+  <si>
+    <t>EHGDBE Index</t>
+  </si>
+  <si>
+    <t>EHGDBR Index</t>
+  </si>
+  <si>
+    <t>EHGDCA Index</t>
+  </si>
+  <si>
+    <t>EHGDCL Index</t>
+  </si>
+  <si>
+    <t>EHGDCN Index</t>
+  </si>
+  <si>
+    <t>EHGDCO Index</t>
+  </si>
+  <si>
+    <t>EHGDDK Index</t>
+  </si>
+  <si>
+    <t>EHGDEG Index</t>
+  </si>
+  <si>
+    <t>EHGDFI Index</t>
+  </si>
+  <si>
+    <t>EHGDFR Index</t>
+  </si>
+  <si>
+    <t>EHGDDE Index</t>
+  </si>
+  <si>
+    <t>EHGDGR Index</t>
+  </si>
+  <si>
+    <t>EHGDHK Index</t>
+  </si>
+  <si>
+    <t>EHGDIN Index</t>
+  </si>
+  <si>
+    <t>EHGDID Index</t>
+  </si>
+  <si>
+    <t>EHGDIE Index</t>
+  </si>
+  <si>
+    <t>EHGDIL Index</t>
+  </si>
+  <si>
+    <t>EHGDJP Index</t>
+  </si>
+  <si>
+    <t>EHGDKR Index</t>
+  </si>
+  <si>
+    <t>EHGDMY Index</t>
+  </si>
+  <si>
+    <t>EHGDMX Index</t>
+  </si>
+  <si>
+    <t>EHGDNL Index</t>
+  </si>
+  <si>
+    <t>EHGDNZ Index</t>
+  </si>
+  <si>
+    <t>EHGDNO Index</t>
+  </si>
+  <si>
+    <t>EHGDPK Index</t>
+  </si>
+  <si>
+    <t>EHGDPE Index</t>
+  </si>
+  <si>
+    <t>EHGDPH Index</t>
+  </si>
+  <si>
+    <t>EHGDPL Index</t>
+  </si>
+  <si>
+    <t>EHGDPT Index</t>
+  </si>
+  <si>
+    <t>EHGDQA Index</t>
+  </si>
+  <si>
+    <t>EHGDRU Index</t>
+  </si>
+  <si>
+    <t>EHGDSA Index</t>
+  </si>
+  <si>
+    <t>EHGDSG Index</t>
+  </si>
+  <si>
+    <t>EHGDZA Index</t>
+  </si>
+  <si>
+    <t>EHGDES Index</t>
+  </si>
+  <si>
+    <t>EHGDSE Index</t>
+  </si>
+  <si>
+    <t>EHGDCH Index</t>
+  </si>
+  <si>
+    <t>EHGDTW Index</t>
+  </si>
+  <si>
+    <t>EHGDTH Index</t>
+  </si>
+  <si>
+    <t>EHGDTR Index</t>
+  </si>
+  <si>
+    <t>EHGDAE Index</t>
+  </si>
+  <si>
+    <t>EHGDGB Index</t>
+  </si>
+  <si>
+    <t>EHGDUS Index</t>
+  </si>
+  <si>
+    <t>BISBZAR Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1594,49 +1594,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{7DE5BEA5-2A41-4C68-BBC7-D347FE1451E5}"/>
-    <cellStyle name="20% - Accent2 2" xfId="3" xr:uid="{FA2DBEB0-46CC-4737-BE10-7181A49CE482}"/>
-    <cellStyle name="20% - Accent3 2" xfId="4" xr:uid="{BACC0A04-03EB-44F4-B796-E8E08023E2B1}"/>
-    <cellStyle name="20% - Accent4 2" xfId="5" xr:uid="{E30AE8C3-DE6B-4FEF-8C3B-634801A4B227}"/>
-    <cellStyle name="20% - Accent5 2" xfId="6" xr:uid="{CA2A556B-3F77-4FD8-87A2-BF8A32C50071}"/>
-    <cellStyle name="20% - Accent6 2" xfId="7" xr:uid="{A7AA5422-9793-443B-8615-CBEEA8C0DDDE}"/>
-    <cellStyle name="40% - Accent1 2" xfId="8" xr:uid="{AD7725B3-2017-4BBC-AC4A-729FEF81ABD2}"/>
-    <cellStyle name="40% - Accent2 2" xfId="9" xr:uid="{FBB81A02-40FF-4929-B657-647244A25408}"/>
-    <cellStyle name="40% - Accent3 2" xfId="10" xr:uid="{897B8EE4-AF58-45A5-9F12-57FBA8020DDC}"/>
-    <cellStyle name="40% - Accent4 2" xfId="11" xr:uid="{910E97E3-D15D-4FC6-B25B-BA74253A7667}"/>
-    <cellStyle name="40% - Accent5 2" xfId="12" xr:uid="{8076875B-0AC5-4AFF-92DA-966095CDFB3C}"/>
-    <cellStyle name="40% - Accent6 2" xfId="13" xr:uid="{20E82DC0-C5BF-4B2F-B92C-61E9E23F5302}"/>
-    <cellStyle name="60% - Accent1 2" xfId="14" xr:uid="{1E1F0486-86B3-4CE7-B85F-EF366FBBAEA3}"/>
-    <cellStyle name="60% - Accent2 2" xfId="15" xr:uid="{099688FB-2D91-4258-9C4A-612CEE4CA128}"/>
-    <cellStyle name="60% - Accent3 2" xfId="16" xr:uid="{FC7271E9-FF54-4C7C-9E28-15A197D41EBD}"/>
-    <cellStyle name="60% - Accent4 2" xfId="17" xr:uid="{EEC0779B-5A74-4BE9-915D-C2C2D25AE99C}"/>
-    <cellStyle name="60% - Accent5 2" xfId="18" xr:uid="{5CCA4A29-D981-42C3-A5FA-89CC894A5DF3}"/>
-    <cellStyle name="60% - Accent6 2" xfId="19" xr:uid="{D1539E05-4020-414C-B08C-2B326D55F4B8}"/>
-    <cellStyle name="Accent1 2" xfId="20" xr:uid="{F4405CED-75D0-4BE1-8C30-A4A60D10565B}"/>
-    <cellStyle name="Accent2 2" xfId="21" xr:uid="{759E5595-3D58-4872-A5DB-5F75702BA110}"/>
-    <cellStyle name="Accent3 2" xfId="22" xr:uid="{EB318C1D-1E9C-4A20-ADDF-D8F378938739}"/>
-    <cellStyle name="Accent4 2" xfId="23" xr:uid="{A080C9CD-E493-4C7B-AF72-6524226EA5D1}"/>
-    <cellStyle name="Accent5 2" xfId="24" xr:uid="{5BD2633A-59FC-4612-8799-07305B180CB3}"/>
-    <cellStyle name="Accent6 2" xfId="25" xr:uid="{87567A7E-50A2-42A2-80B5-33E6354F0F4E}"/>
-    <cellStyle name="Bad 2" xfId="26" xr:uid="{FB4D8B3A-AB72-4613-B9A7-232F306F3B8D}"/>
-    <cellStyle name="blp_datetime" xfId="42" xr:uid="{52B2AFB9-3D1E-45CE-ADAD-A52EE45B6827}"/>
-    <cellStyle name="Calculation 2" xfId="27" xr:uid="{2D201AA7-B007-460B-B3F7-1282AFFE4D00}"/>
-    <cellStyle name="Check Cell 2" xfId="28" xr:uid="{4F23D23E-CD7C-41B0-9781-E903EC955F25}"/>
-    <cellStyle name="Explanatory Text 2" xfId="29" xr:uid="{181ACC97-AB73-4011-B60B-95594C97E1D7}"/>
-    <cellStyle name="Good 2" xfId="30" xr:uid="{8A6AB54B-3410-45FF-AD76-B807AFB71442}"/>
-    <cellStyle name="Heading 1 2" xfId="31" xr:uid="{36EE4636-897B-463A-A094-097B23CDD3FA}"/>
-    <cellStyle name="Heading 2 2" xfId="32" xr:uid="{8EC822F1-0236-4504-AAC9-3EF78E8FE015}"/>
-    <cellStyle name="Heading 3 2" xfId="33" xr:uid="{D8BD1E1A-C777-4E36-B938-E4992C88BC54}"/>
-    <cellStyle name="Heading 4 2" xfId="34" xr:uid="{704424B7-89DD-467C-9219-8FD28CA397B6}"/>
-    <cellStyle name="Input 2" xfId="35" xr:uid="{02E75ECD-7B8C-4B83-8F5F-17FB8AC9BE9F}"/>
-    <cellStyle name="Linked Cell 2" xfId="36" xr:uid="{C5FDB1A0-86C5-4BDC-87E8-EDA0F89B6112}"/>
-    <cellStyle name="Neutral 2" xfId="37" xr:uid="{6AE67993-009D-483D-9E81-8E54BAE1BD25}"/>
+    <cellStyle name="20% - Accent1 2" xfId="2"/>
+    <cellStyle name="20% - Accent2 2" xfId="3"/>
+    <cellStyle name="20% - Accent3 2" xfId="4"/>
+    <cellStyle name="20% - Accent4 2" xfId="5"/>
+    <cellStyle name="20% - Accent5 2" xfId="6"/>
+    <cellStyle name="20% - Accent6 2" xfId="7"/>
+    <cellStyle name="40% - Accent1 2" xfId="8"/>
+    <cellStyle name="40% - Accent2 2" xfId="9"/>
+    <cellStyle name="40% - Accent3 2" xfId="10"/>
+    <cellStyle name="40% - Accent4 2" xfId="11"/>
+    <cellStyle name="40% - Accent5 2" xfId="12"/>
+    <cellStyle name="40% - Accent6 2" xfId="13"/>
+    <cellStyle name="60% - Accent1 2" xfId="14"/>
+    <cellStyle name="60% - Accent2 2" xfId="15"/>
+    <cellStyle name="60% - Accent3 2" xfId="16"/>
+    <cellStyle name="60% - Accent4 2" xfId="17"/>
+    <cellStyle name="60% - Accent5 2" xfId="18"/>
+    <cellStyle name="60% - Accent6 2" xfId="19"/>
+    <cellStyle name="Accent1 2" xfId="20"/>
+    <cellStyle name="Accent2 2" xfId="21"/>
+    <cellStyle name="Accent3 2" xfId="22"/>
+    <cellStyle name="Accent4 2" xfId="23"/>
+    <cellStyle name="Accent5 2" xfId="24"/>
+    <cellStyle name="Accent6 2" xfId="25"/>
+    <cellStyle name="Bad 2" xfId="26"/>
+    <cellStyle name="blp_datetime" xfId="42"/>
+    <cellStyle name="Calculation 2" xfId="27"/>
+    <cellStyle name="Check Cell 2" xfId="28"/>
+    <cellStyle name="Explanatory Text 2" xfId="29"/>
+    <cellStyle name="Good 2" xfId="30"/>
+    <cellStyle name="Heading 1 2" xfId="31"/>
+    <cellStyle name="Heading 2 2" xfId="32"/>
+    <cellStyle name="Heading 3 2" xfId="33"/>
+    <cellStyle name="Heading 4 2" xfId="34"/>
+    <cellStyle name="Input 2" xfId="35"/>
+    <cellStyle name="Linked Cell 2" xfId="36"/>
+    <cellStyle name="Neutral 2" xfId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output 2" xfId="38" xr:uid="{78802112-8836-4BF6-AC20-BC3CCEB2B2F0}"/>
-    <cellStyle name="Title 2" xfId="39" xr:uid="{0025652E-9420-4200-B2DB-9B6C10DBF3FC}"/>
-    <cellStyle name="Total 2" xfId="40" xr:uid="{5F33272C-578A-4D1D-819F-54FE17128ABB}"/>
-    <cellStyle name="Warning Text 2" xfId="41" xr:uid="{2B589046-2737-4939-AEC9-59BF40C45271}"/>
+    <cellStyle name="Output 2" xfId="38"/>
+    <cellStyle name="Title 2" xfId="39"/>
+    <cellStyle name="Total 2" xfId="40"/>
+    <cellStyle name="Warning Text 2" xfId="41"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1694,7 +1694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1729,7 +1729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1906,18 +1906,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,7 +1959,7 @@
         <v>278</v>
       </c>
       <c r="I1" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
         <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2011,10 +2011,10 @@
         <v>232</v>
       </c>
       <c r="H3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I3" t="s">
         <v>281</v>
-      </c>
-      <c r="I3" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2040,10 +2040,10 @@
         <v>233</v>
       </c>
       <c r="H4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" t="s">
         <v>282</v>
-      </c>
-      <c r="I4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2069,7 +2069,7 @@
         <v>234</v>
       </c>
       <c r="H5" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2089,16 +2089,16 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>357</v>
       </c>
       <c r="G6" t="s">
         <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="I6" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2124,10 +2124,10 @@
         <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="I7" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
         <v>237</v>
       </c>
       <c r="H8" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2179,10 +2179,10 @@
         <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="I9" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2208,10 +2208,10 @@
         <v>239</v>
       </c>
       <c r="H10" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="I10" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2237,10 +2237,10 @@
         <v>240</v>
       </c>
       <c r="H11" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="I11" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>241</v>
       </c>
       <c r="H12" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2289,7 +2289,7 @@
         <v>242</v>
       </c>
       <c r="H13" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2315,10 +2315,10 @@
         <v>243</v>
       </c>
       <c r="H14" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="I14" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2344,10 +2344,10 @@
         <v>244</v>
       </c>
       <c r="H15" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="I15" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2373,10 +2373,10 @@
         <v>245</v>
       </c>
       <c r="H16" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="I16" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2402,10 +2402,10 @@
         <v>246</v>
       </c>
       <c r="H17" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="I17" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2431,10 +2431,10 @@
         <v>247</v>
       </c>
       <c r="H18" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="I18" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2460,10 +2460,10 @@
         <v>248</v>
       </c>
       <c r="H19" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="I19" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2489,10 +2489,10 @@
         <v>249</v>
       </c>
       <c r="H20" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="I20" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
         <v>250</v>
       </c>
       <c r="H21" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2543,8 +2543,11 @@
       <c r="G22" t="s">
         <v>251</v>
       </c>
+      <c r="H22" t="s">
+        <v>310</v>
+      </c>
       <c r="I22" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2570,10 +2573,10 @@
         <v>252</v>
       </c>
       <c r="H23" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="I23" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2599,10 +2602,10 @@
         <v>253</v>
       </c>
       <c r="H24" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="I24" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2628,10 +2631,10 @@
         <v>254</v>
       </c>
       <c r="H25" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="I25" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2657,10 +2660,10 @@
         <v>255</v>
       </c>
       <c r="H26" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="I26" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2686,10 +2689,10 @@
         <v>256</v>
       </c>
       <c r="H27" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="I27" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2715,7 +2718,7 @@
         <v>257</v>
       </c>
       <c r="H28" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2741,7 +2744,7 @@
         <v>258</v>
       </c>
       <c r="H29" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2764,7 +2767,7 @@
         <v>259</v>
       </c>
       <c r="H30" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2790,7 +2793,7 @@
         <v>260</v>
       </c>
       <c r="H31" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2816,10 +2819,10 @@
         <v>261</v>
       </c>
       <c r="H32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="I32" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2845,10 +2848,10 @@
         <v>262</v>
       </c>
       <c r="H33" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="I33" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2874,7 +2877,7 @@
         <v>263</v>
       </c>
       <c r="H34" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2897,7 +2900,7 @@
         <v>264</v>
       </c>
       <c r="H35" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2923,10 +2926,10 @@
         <v>265</v>
       </c>
       <c r="H36" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="I36" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2952,7 +2955,7 @@
         <v>266</v>
       </c>
       <c r="H37" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2978,7 +2981,7 @@
         <v>267</v>
       </c>
       <c r="H38" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2997,11 +3000,14 @@
       <c r="E39" t="s">
         <v>117</v>
       </c>
+      <c r="F39" t="s">
+        <v>213</v>
+      </c>
       <c r="G39" t="s">
         <v>268</v>
       </c>
       <c r="H39" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3027,10 +3033,10 @@
         <v>269</v>
       </c>
       <c r="H40" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="I40" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3056,7 +3062,7 @@
         <v>270</v>
       </c>
       <c r="H41" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3082,7 +3088,7 @@
         <v>271</v>
       </c>
       <c r="H42" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3108,10 +3114,10 @@
         <v>272</v>
       </c>
       <c r="H43" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3137,10 +3143,10 @@
         <v>273</v>
       </c>
       <c r="H44" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="I44" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3166,10 +3172,10 @@
         <v>274</v>
       </c>
       <c r="H45" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="I45" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3195,7 +3201,7 @@
         <v>275</v>
       </c>
       <c r="H46" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3221,10 +3227,10 @@
         <v>276</v>
       </c>
       <c r="H47" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="I47" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3250,10 +3256,10 @@
         <v>277</v>
       </c>
       <c r="H48" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="I48" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDD1BAF-73CD-4302-871B-ECCE36596F15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="359">
   <si>
     <t>Ticker</t>
   </si>
@@ -1100,6 +1100,9 @@
   </si>
   <si>
     <t>BISBZAR Index</t>
+  </si>
+  <si>
+    <t>Include</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1909,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1914,26 +1917,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1944,25 +1946,28 @@
         <v>182</v>
       </c>
       <c r="D1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>187</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>279</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>278</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1972,23 +1977,26 @@
       <c r="C2" t="s">
         <v>186</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>145</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>223</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>231</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1998,26 +2006,29 @@
       <c r="C3" t="s">
         <v>185</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>146</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>224</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>232</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>312</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2027,26 +2038,29 @@
       <c r="C4" t="s">
         <v>185</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>147</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>225</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>233</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>313</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2056,23 +2070,26 @@
       <c r="C5" t="s">
         <v>185</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>147</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>226</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>234</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2082,26 +2099,29 @@
       <c r="C6" t="s">
         <v>186</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>148</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>357</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>235</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>315</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2111,26 +2131,29 @@
       <c r="C7" t="s">
         <v>185</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>149</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>227</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>236</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>316</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2140,23 +2163,26 @@
       <c r="C8" t="s">
         <v>186</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>150</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>228</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>237</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2166,26 +2192,29 @@
       <c r="C9" t="s">
         <v>186</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>151</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>229</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>238</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>318</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2195,26 +2224,29 @@
       <c r="C10" t="s">
         <v>186</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>152</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>230</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>239</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>319</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2224,26 +2256,29 @@
       <c r="C11" t="s">
         <v>185</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>153</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>188</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>240</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>320</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2253,20 +2288,23 @@
       <c r="C12" t="s">
         <v>186</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>154</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>241</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2276,23 +2314,26 @@
       <c r="C13" t="s">
         <v>185</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>147</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>189</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>242</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2302,26 +2343,29 @@
       <c r="C14" t="s">
         <v>185</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>147</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>190</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>243</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>323</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2331,26 +2375,29 @@
       <c r="C15" t="s">
         <v>185</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>147</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>191</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>244</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>324</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2360,26 +2407,29 @@
       <c r="C16" t="s">
         <v>186</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>147</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>48</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>192</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>245</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>325</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2389,26 +2439,29 @@
       <c r="C17" t="s">
         <v>185</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>155</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>193</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>246</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>326</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2418,26 +2471,29 @@
       <c r="C18" t="s">
         <v>186</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>156</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>194</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>247</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>327</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2447,26 +2503,29 @@
       <c r="C19" t="s">
         <v>186</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>157</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>195</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>248</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>328</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2476,26 +2535,29 @@
       <c r="C20" t="s">
         <v>185</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>147</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>196</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>249</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>329</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2505,23 +2567,26 @@
       <c r="C21" t="s">
         <v>185</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>158</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>63</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>197</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>250</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2531,26 +2596,29 @@
       <c r="C22" t="s">
         <v>185</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>147</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>66</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>198</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>251</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>310</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2560,26 +2628,29 @@
       <c r="C23" t="s">
         <v>185</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>159</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>69</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>199</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>252</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>331</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -2589,26 +2660,29 @@
       <c r="C24" t="s">
         <v>186</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>160</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>200</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>253</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>332</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2618,26 +2692,29 @@
       <c r="C25" t="s">
         <v>186</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>161</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>201</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>254</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>333</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -2647,26 +2724,29 @@
       <c r="C26" t="s">
         <v>186</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>162</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>78</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>202</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>255</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>334</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -2676,26 +2756,29 @@
       <c r="C27" t="s">
         <v>185</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
         <v>147</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>81</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>203</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>256</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>335</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2705,23 +2788,26 @@
       <c r="C28" t="s">
         <v>185</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>163</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>84</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>204</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>257</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -2731,23 +2817,26 @@
       <c r="C29" t="s">
         <v>185</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
         <v>164</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>87</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>205</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>258</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -2757,20 +2846,23 @@
       <c r="C30" t="s">
         <v>186</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>165</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>90</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>259</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2780,23 +2872,26 @@
       <c r="C31" t="s">
         <v>186</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>166</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>93</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>206</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>260</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -2806,26 +2901,29 @@
       <c r="C32" t="s">
         <v>186</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>167</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>96</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>207</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>261</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>340</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -2835,26 +2933,29 @@
       <c r="C33" t="s">
         <v>186</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>168</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>99</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>208</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>262</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>341</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -2864,23 +2965,26 @@
       <c r="C34" t="s">
         <v>185</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
         <v>147</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>102</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>209</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>263</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2890,20 +2994,23 @@
       <c r="C35" t="s">
         <v>186</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>169</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>105</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>264</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -2913,26 +3020,29 @@
       <c r="C36" t="s">
         <v>186</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>170</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>108</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>210</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>265</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>344</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -2942,23 +3052,26 @@
       <c r="C37" t="s">
         <v>186</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>171</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>111</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>211</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>266</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2968,23 +3081,26 @@
       <c r="C38" t="s">
         <v>185</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>172</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>114</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>212</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>267</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2994,23 +3110,26 @@
       <c r="C39" t="s">
         <v>186</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
         <v>173</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>117</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>213</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>268</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -3020,26 +3139,29 @@
       <c r="C40" t="s">
         <v>185</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
         <v>147</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>120</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>214</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>269</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>348</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -3049,23 +3171,26 @@
       <c r="C41" t="s">
         <v>185</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
         <v>174</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>123</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>215</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>270</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -3075,23 +3200,26 @@
       <c r="C42" t="s">
         <v>185</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>175</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>126</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>216</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>271</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -3101,26 +3229,29 @@
       <c r="C43" t="s">
         <v>186</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>176</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>129</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>217</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>272</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>351</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -3130,26 +3261,29 @@
       <c r="C44" t="s">
         <v>186</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>177</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>132</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>218</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>273</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>352</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3159,26 +3293,29 @@
       <c r="C45" t="s">
         <v>186</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>178</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>135</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>219</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>274</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>353</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -3188,23 +3325,26 @@
       <c r="C46" t="s">
         <v>186</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
         <v>179</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>138</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>220</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>275</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -3214,26 +3354,29 @@
       <c r="C47" t="s">
         <v>185</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>180</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>141</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>221</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>276</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>355</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -3243,22 +3386,25 @@
       <c r="C48" t="s">
         <v>185</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
         <v>181</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>144</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>222</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>277</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>356</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>309</v>
       </c>
     </row>
